--- a/액셀/테이블명세(2018-12-20).xlsx
+++ b/액셀/테이블명세(2018-12-20).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="262">
   <si>
     <t>매입/매출 관리대장</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -919,19 +919,43 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>거래처코드</t>
+    <t>상품코드</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>거래처명</t>
+    <t>상품명</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>대표자명</t>
+    <t>매입단가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(6)</t>
+    <t>매출단가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입단가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출단가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(9)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(9)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -939,27 +963,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>d_code</t>
+    <t>문자열</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>d_name</t>
+    <t>숫자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>d_ceo</t>
+    <t>p_code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>거래처정보</t>
+    <t>p_code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_dept</t>
+    <t>p_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(6)</t>
+    <t>p_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_iprice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_oprice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_oprice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_product</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_product</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -967,47 +1027,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>PRIMARY KEY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>NOT NULL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_product</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(5)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1358,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,15 +1495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1496,6 +1527,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1836,12 +1891,12 @@
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
@@ -16958,252 +17013,252 @@
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -17216,8 +17271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17265,198 +17320,206 @@
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="C5" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17470,7 +17533,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17518,189 +17581,206 @@
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="E6" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="E7" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
